--- a/Unity/Assets/Config/Excel/__beans__.xlsx
+++ b/Unity/Assets/Config/Excel/__beans__.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="27726"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="27928"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\UnityProjects\Zero\Unity\Assets\Config\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{98151D3E-D157-4F46-A123-8C7724367D70}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{901E6899-31A5-4819-8C45-C941F7B2527B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1470" yWindow="0" windowWidth="23250" windowHeight="16200" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="21">
   <si>
     <t>##var</t>
   </si>
@@ -43,9 +43,6 @@
     <t>tags</t>
   </si>
   <si>
-    <t>*fields</t>
-  </si>
-  <si>
     <t>name</t>
   </si>
   <si>
@@ -74,42 +71,6 @@
   </si>
   <si>
     <t>注释</t>
-  </si>
-  <si>
-    <t>LocalizeConfig_EN</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>ALocalizeConfig</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>key</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>string</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>LocalizeConfig_CHS</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>LocalizeConfig_CHT</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>TextCHS</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>TextCHT</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>TextEN</t>
-    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>valueType</t>
@@ -117,6 +78,14 @@
   </si>
   <si>
     <t>group</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>alias</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>*fields</t>
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
 </sst>
@@ -516,10 +485,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:N16"/>
+  <dimension ref="A1:O15"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="122" zoomScaleNormal="122" workbookViewId="0">
-      <selection activeCell="H11" sqref="H11"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A4" sqref="A4:XFD4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -531,7 +500,7 @@
     <col min="12" max="12" width="10.375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -542,7 +511,7 @@
         <v>2</v>
       </c>
       <c r="D1" s="4" t="s">
-        <v>27</v>
+        <v>17</v>
       </c>
       <c r="E1" t="s">
         <v>3</v>
@@ -554,31 +523,32 @@
         <v>5</v>
       </c>
       <c r="H1" s="4" t="s">
-        <v>28</v>
+        <v>18</v>
       </c>
       <c r="I1" t="s">
         <v>6</v>
       </c>
       <c r="J1" s="5" t="s">
-        <v>7</v>
+        <v>20</v>
       </c>
       <c r="K1" s="5"/>
       <c r="L1" s="5"/>
       <c r="M1" s="5"/>
       <c r="N1" s="5"/>
-    </row>
-    <row r="2" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O1" s="5"/>
+    </row>
+    <row r="2" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
       <c r="J2" t="s">
+        <v>7</v>
+      </c>
+      <c r="K2" t="s">
         <v>8</v>
       </c>
-      <c r="K2" t="s">
+      <c r="L2" t="s">
         <v>9</v>
-      </c>
-      <c r="L2" t="s">
-        <v>10</v>
       </c>
       <c r="M2" t="s">
         <v>5</v>
@@ -586,94 +556,73 @@
       <c r="N2" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="3" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O2" s="4" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="3" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
+        <v>10</v>
+      </c>
+      <c r="B3" t="s">
         <v>11</v>
       </c>
-      <c r="B3" t="s">
+      <c r="E3" t="s">
         <v>12</v>
       </c>
-      <c r="E3" t="s">
+      <c r="J3" t="s">
         <v>13</v>
       </c>
-      <c r="J3" t="s">
+      <c r="K3" t="s">
         <v>14</v>
       </c>
-      <c r="K3" t="s">
+      <c r="L3" t="s">
         <v>15</v>
       </c>
-      <c r="L3" t="s">
+      <c r="M3" t="s">
         <v>16</v>
       </c>
-      <c r="M3" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="4" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="B4" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="E4" s="2"/>
-      <c r="F4" s="2"/>
-      <c r="J4" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="K4" s="2" t="s">
-        <v>21</v>
-      </c>
+    </row>
+    <row r="4" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="B4" s="2"/>
+      <c r="C4" s="2"/>
+      <c r="D4" s="2"/>
+      <c r="J4" s="2"/>
+      <c r="K4" s="2"/>
       <c r="M4" s="2"/>
     </row>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="B5" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="C5" s="2" t="s">
-        <v>19</v>
-      </c>
+    <row r="5" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="B5" s="2"/>
+      <c r="C5" s="2"/>
       <c r="D5" s="2"/>
-      <c r="J5" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="K5" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="M5" s="2"/>
-    </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="B6" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="C6" s="2" t="s">
-        <v>19</v>
-      </c>
+      <c r="J5" s="2"/>
+      <c r="K5" s="2"/>
+    </row>
+    <row r="6" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="B6" s="2"/>
+      <c r="C6" s="2"/>
       <c r="D6" s="2"/>
-      <c r="J6" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="K6" s="2" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="B7" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="C7" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="D7" s="2"/>
-      <c r="J7" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="K7" s="2" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="10" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="B10" s="2"/>
-    </row>
-    <row r="13" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="J6" s="2"/>
+      <c r="K6" s="2"/>
+    </row>
+    <row r="9" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="B9" s="2"/>
+    </row>
+    <row r="12" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="B12" s="3"/>
+      <c r="C12" s="3"/>
+      <c r="D12" s="3"/>
+      <c r="E12" s="3"/>
+      <c r="F12" s="3"/>
+      <c r="G12" s="3"/>
+      <c r="H12" s="3"/>
+      <c r="I12" s="3"/>
+      <c r="J12" s="3"/>
+      <c r="K12" s="3"/>
+      <c r="L12" s="3"/>
+      <c r="M12" s="3"/>
+    </row>
+    <row r="13" spans="1:15" x14ac:dyDescent="0.2">
       <c r="B13" s="3"/>
       <c r="C13" s="3"/>
       <c r="D13" s="3"/>
@@ -687,7 +636,7 @@
       <c r="L13" s="3"/>
       <c r="M13" s="3"/>
     </row>
-    <row r="14" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:15" x14ac:dyDescent="0.2">
       <c r="B14" s="3"/>
       <c r="C14" s="3"/>
       <c r="D14" s="3"/>
@@ -701,7 +650,7 @@
       <c r="L14" s="3"/>
       <c r="M14" s="3"/>
     </row>
-    <row r="15" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:15" x14ac:dyDescent="0.2">
       <c r="B15" s="3"/>
       <c r="C15" s="3"/>
       <c r="D15" s="3"/>
@@ -715,23 +664,9 @@
       <c r="L15" s="3"/>
       <c r="M15" s="3"/>
     </row>
-    <row r="16" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="B16" s="3"/>
-      <c r="C16" s="3"/>
-      <c r="D16" s="3"/>
-      <c r="E16" s="3"/>
-      <c r="F16" s="3"/>
-      <c r="G16" s="3"/>
-      <c r="H16" s="3"/>
-      <c r="I16" s="3"/>
-      <c r="J16" s="3"/>
-      <c r="K16" s="3"/>
-      <c r="L16" s="3"/>
-      <c r="M16" s="3"/>
-    </row>
   </sheetData>
   <mergeCells count="1">
-    <mergeCell ref="J1:N1"/>
+    <mergeCell ref="J1:O1"/>
   </mergeCells>
   <phoneticPr fontId="5" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
